--- a/Boards/2020_MC_copy/bomberman.xlsx
+++ b/Boards/2020_MC_copy/bomberman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aldricgozon/Documents/EAGLE/projects/2020 MC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E96A68-D71B-394B-A78F-C9DAAED5E16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66DB6C7-8739-D24E-9FA4-7107507EF788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18260" yWindow="1660" windowWidth="12000" windowHeight="15940" xr2:uid="{AE29C9B0-7084-5B46-9137-C2A8B0821F46}"/>
+    <workbookView xWindow="7220" yWindow="1460" windowWidth="12000" windowHeight="15940" xr2:uid="{AE29C9B0-7084-5B46-9137-C2A8B0821F46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,13 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>0402-CAP</t>
   </si>
@@ -92,9 +86,6 @@
     <t>R6, R7</t>
   </si>
   <si>
-    <t>QFN-44</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>LED2</t>
   </si>
   <si>
-    <t>Part Number</t>
-  </si>
-  <si>
     <t>C1, C3, C7</t>
   </si>
   <si>
@@ -149,9 +137,6 @@
     <t>C12018</t>
   </si>
   <si>
-    <t>C115962</t>
-  </si>
-  <si>
     <t>C25804</t>
   </si>
   <si>
@@ -203,9 +188,6 @@
     <t>SMD,6.3x5.3mm</t>
   </si>
   <si>
-    <t>Designator</t>
-  </si>
-  <si>
     <t>0.1 µF</t>
   </si>
   <si>
@@ -249,6 +231,12 @@
   </si>
   <si>
     <t>10 kΩ</t>
+  </si>
+  <si>
+    <t>C112572</t>
+  </si>
+  <si>
+    <t>QFN-44_7x7x05P</t>
   </si>
 </sst>
 </file>
@@ -627,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796A6053-AE8B-8041-8B42-1CDBF6CECFB3}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,276 +642,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1206</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1206</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A105KB8NNNC_1uF-105-10-50V_C15849.html/?href=jlc-SMT" xr:uid="{AB21C930-F993-3340-A0E8-2EA1EA62A173}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{A33E826E-6322-0745-97B0-F0E684D74C6A}"/>
-    <hyperlink ref="D7" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{31D8B279-6830-2A48-BC58-63FCD487A18C}"/>
-    <hyperlink ref="D2" r:id="rId4" display="https://lcsc.com/product-detail/Resistor-Networks-Arrays_Uniroyal-Elec-4D03WGJ0103T5E_C29718.html/?href=jlc-SMT" xr:uid="{FEDAA83C-A75E-8B46-9D24-16AA066CF13A}"/>
-    <hyperlink ref="D3" r:id="rId5" display="https://lcsc.com/product-detail/Resistor-Networks-Arrays_Uniroyal-Elec-4D03WGJ0331T5E_C12018.html/?href=jlc-SMT" xr:uid="{DAA9329E-EE91-D94D-A98D-6162D1BFC919}"/>
-    <hyperlink ref="D6" r:id="rId6" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_Yangxing-Tech-X50328MSB2GI_C115962.html/?href=jlc-SMT" xr:uid="{88667751-68CB-6544-AE87-993C7BD0339C}"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF1002T5E_C25804.html/?href=jlc-SMT" xr:uid="{258CEE5D-9909-AF46-BC03-6CDAF35D62F2}"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10C180JB8NNNC_18pF-180-5-50V_C1647.html/?href=jlc-SMT" xr:uid="{8F892DB2-57D0-0D42-B274-AACDF33A0FD8}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF220JT5E_C23345.html/?href=jlc-SMT" xr:uid="{821A8FCC-4EEC-2245-BD2D-62DEEEC974D4}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://lcsc.com/product-detail/ATMEL-AVR_ATMEL_ATMEGA32U4_ATMEGA32U4-MUR_C45874.html/?href=jlc-SMT" xr:uid="{DF0F9143-A7EC-E340-A750-83AE56298C2E}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF3300T5E_C23138.html/?href=jlc-SMT" xr:uid="{3564674C-241A-2345-BA2C-27C3143E6A29}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL31A476MPHNNNE_47uF-476-20-10V_C96123.html/?href=jlc-SMT" xr:uid="{FD5CB81C-6C77-C54A-8468-33CDA9957C7A}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://lcsc.com/product-detail/Motor-Drivers_TI_DRV8872DDAR_DRV8872DDAR_C114179.html/?href=jlc-SMT" xr:uid="{7904BCC7-ECAD-0641-8A2C-F4A858930DC9}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_LED-green0805_C63855.html/?href=jlc-SMT" xr:uid="{27ACC045-0297-EF40-A3E5-06C24638C4A7}"/>
-    <hyperlink ref="D18" r:id="rId15" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0805-Yellow-light_C72036.html/?href=jlc-SMT" xr:uid="{5791F765-D4E5-6B45-9140-B601F00EE846}"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0805-Red-LED-Iv-61mcd-Typ-atIF-20mA_C72037.html/?href=jlc-SMT" xr:uid="{10F9C0D6-607A-584D-8229-DC98A158D02B}"/>
-    <hyperlink ref="D16" r:id="rId17" display="https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_Lelon-VE-101M1CTR-0605_C134723.html/?href=jlc-SMT" xr:uid="{F59D61E4-05A6-D04C-96C2-93682EDD5EB0}"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A105KB8NNNC_1uF-105-10-50V_C15849.html/?href=jlc-SMT" xr:uid="{AB21C930-F993-3340-A0E8-2EA1EA62A173}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{A33E826E-6322-0745-97B0-F0E684D74C6A}"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{31D8B279-6830-2A48-BC58-63FCD487A18C}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://lcsc.com/product-detail/Resistor-Networks-Arrays_Uniroyal-Elec-4D03WGJ0103T5E_C29718.html/?href=jlc-SMT" xr:uid="{FEDAA83C-A75E-8B46-9D24-16AA066CF13A}"/>
+    <hyperlink ref="D2" r:id="rId5" display="https://lcsc.com/product-detail/Resistor-Networks-Arrays_Uniroyal-Elec-4D03WGJ0331T5E_C12018.html/?href=jlc-SMT" xr:uid="{DAA9329E-EE91-D94D-A98D-6162D1BFC919}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF1002T5E_C25804.html/?href=jlc-SMT" xr:uid="{258CEE5D-9909-AF46-BC03-6CDAF35D62F2}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10C180JB8NNNC_18pF-180-5-50V_C1647.html/?href=jlc-SMT" xr:uid="{8F892DB2-57D0-0D42-B274-AACDF33A0FD8}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF220JT5E_C23345.html/?href=jlc-SMT" xr:uid="{821A8FCC-4EEC-2245-BD2D-62DEEEC974D4}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://lcsc.com/product-detail/ATMEL-AVR_ATMEL_ATMEGA32U4_ATMEGA32U4-MUR_C45874.html/?href=jlc-SMT" xr:uid="{DF0F9143-A7EC-E340-A750-83AE56298C2E}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0603WAF3300T5E_C23138.html/?href=jlc-SMT" xr:uid="{3564674C-241A-2345-BA2C-27C3143E6A29}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL31A476MPHNNNE_47uF-476-20-10V_C96123.html/?href=jlc-SMT" xr:uid="{FD5CB81C-6C77-C54A-8468-33CDA9957C7A}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://lcsc.com/product-detail/Motor-Drivers_TI_DRV8872DDAR_DRV8872DDAR_C114179.html/?href=jlc-SMT" xr:uid="{7904BCC7-ECAD-0641-8A2C-F4A858930DC9}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_LED-green0805_C63855.html/?href=jlc-SMT" xr:uid="{27ACC045-0297-EF40-A3E5-06C24638C4A7}"/>
+    <hyperlink ref="D17" r:id="rId14" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0805-Yellow-light_C72036.html/?href=jlc-SMT" xr:uid="{5791F765-D4E5-6B45-9140-B601F00EE846}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0805-Red-LED-Iv-61mcd-Typ-atIF-20mA_C72037.html/?href=jlc-SMT" xr:uid="{10F9C0D6-607A-584D-8229-DC98A158D02B}"/>
+    <hyperlink ref="D15" r:id="rId16" display="https://lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-SMD_Lelon-VE-101M1CTR-0605_C134723.html/?href=jlc-SMT" xr:uid="{F59D61E4-05A6-D04C-96C2-93682EDD5EB0}"/>
+    <hyperlink ref="D5" r:id="rId17" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_Yangxing-Tech-X503216MSB2GI_C112572.html/?href=jlc-SMT" xr:uid="{218BE593-0BE7-1045-A4E4-5018985558A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
